--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_109__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_109__Reeval_LHS_Modell_1.3.xlsx
@@ -5906,7 +5906,7 @@
                   <c:v>74.61956787109375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.52831268310547</c:v>
+                  <c:v>71.5283203125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>72.99781036376953</c:v>
@@ -5930,7 +5930,7 @@
                   <c:v>65.18054962158203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.91391754150391</c:v>
+                  <c:v>75.91392517089844</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>66.16980743408203</c:v>
@@ -5948,7 +5948,7 @@
                   <c:v>67.03407287597656</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.95978546142578</c:v>
+                  <c:v>53.95978164672852</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>70.98007965087891</c:v>
@@ -5990,7 +5990,7 @@
                   <c:v>69.9310302734375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68.69091796875</c:v>
+                  <c:v>68.69092559814453</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>69.14482879638672</c:v>
@@ -6005,16 +6005,16 @@
                   <c:v>64.37952423095703</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>67.95728302001953</c:v>
+                  <c:v>67.95729064941406</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68.05536651611328</c:v>
+                  <c:v>68.05537414550781</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>60.56331634521484</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>68.36219787597656</c:v>
+                  <c:v>68.36219024658203</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>74.44844055175781</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>62.15552520751953</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>74.70752716064453</c:v>
+                  <c:v>74.70751953125</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>64.31295776367188</c:v>
@@ -6068,10 +6068,10 @@
                   <c:v>74.72879791259766</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>72.66045379638672</c:v>
+                  <c:v>72.66046142578125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>55.62319183349609</c:v>
+                  <c:v>55.62319946289062</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>68.06222534179688</c:v>
@@ -6089,7 +6089,7 @@
                   <c:v>73.33349609375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73.25388336181641</c:v>
+                  <c:v>73.25387573242188</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>65.62844085693359</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>72.08303070068359</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>64.35057067871094</c:v>
+                  <c:v>64.35056304931641</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>64.66851043701172</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>71.54072570800781</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>65.18665313720703</c:v>
+                  <c:v>65.1866455078125</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>58.82366180419922</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>67.20940399169922</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>69.24131011962891</c:v>
+                  <c:v>69.24131774902344</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>65.90354156494141</c:v>
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>71.52831268310547</v>
+        <v>71.5283203125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>75.91391754150391</v>
+        <v>75.91392517089844</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>36.6299</v>
       </c>
       <c r="F27">
-        <v>53.95978546142578</v>
+        <v>53.95978164672852</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>68.69091796875</v>
+        <v>68.69092559814453</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>67.95728302001953</v>
+        <v>67.95729064941406</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>68.05536651611328</v>
+        <v>68.05537414550781</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>53.5828</v>
       </c>
       <c r="F49">
-        <v>68.36219787597656</v>
+        <v>68.36219024658203</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>81.81910000000001</v>
       </c>
       <c r="F58">
-        <v>74.70752716064453</v>
+        <v>74.70751953125</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>72.66045379638672</v>
+        <v>72.66046142578125</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>72.51430000000001</v>
       </c>
       <c r="F68">
-        <v>55.62319183349609</v>
+        <v>55.62319946289062</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>61.983</v>
       </c>
       <c r="F74">
-        <v>73.25388336181641</v>
+        <v>73.25387573242188</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>88.9012</v>
       </c>
       <c r="F83">
-        <v>64.35057067871094</v>
+        <v>64.35056304931641</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>65.18665313720703</v>
+        <v>65.1866455078125</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>69.24131011962891</v>
+        <v>69.24131774902344</v>
       </c>
     </row>
     <row r="97" spans="1:6">
